--- a/99Daily Report/99OutPut/0707a팀 일정표.xlsx
+++ b/99Daily Report/99OutPut/0707a팀 일정표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\C2S_Internship\99Daily Report\99OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B54166-A0DC-4311-955B-56E78DE16C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2B584-4C6A-4D36-B22B-7290AD63858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B5BA2FD-7174-4AAD-B485-BAA46AA66808}"/>
   </bookViews>
@@ -489,42 +489,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -537,33 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -585,31 +525,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,7 +929,7 @@
   <dimension ref="D4:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -940,337 +940,345 @@
   <sheetData>
     <row r="4" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="13"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D7:M9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="J20:K20"/>
@@ -1281,14 +1289,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D5:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D7:M9"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/99Daily Report/99OutPut/0707a팀 일정표.xlsx
+++ b/99Daily Report/99OutPut/0707a팀 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\C2S_Internship\99Daily Report\99OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2B584-4C6A-4D36-B22B-7290AD63858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E616790-8C58-4335-8DF0-59DE3BBD5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B5BA2FD-7174-4AAD-B485-BAA46AA66808}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>리소스 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,26 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유니티 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 네트워킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>객체구조 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7--2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +133,26 @@
   </si>
   <si>
     <t>브로드캐스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 및 전투 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -434,46 +444,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -489,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,92 +523,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66022B-CDD7-459E-8D49-E36B7264BF52}">
-  <dimension ref="D4:Q21"/>
+  <dimension ref="D4:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -940,337 +941,355 @@
   <sheetData>
     <row r="4" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D10" s="1"/>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
-    </row>
-    <row r="6" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="33" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-    </row>
-    <row r="9" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="31" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="2"/>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="4:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I21:O21"/>
     <mergeCell ref="D5:Q6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
@@ -1279,16 +1298,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
